--- a/Ejemplo tabla nutricional.xlsx
+++ b/Ejemplo tabla nutricional.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/jose_torres_correo_ucu_edu_uy/Documents/VS CODE/Programacion II/food_formulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{ECD9DDF4-A810-436C-A4F0-009AF0C184B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E4730B4-B3D1-4841-A2D6-DF96B096C4E2}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{ECD9DDF4-A810-436C-A4F0-009AF0C184B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4832B5-6CE1-4450-A700-A2C16514AD71}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplos y otros valores" sheetId="3" r:id="rId1"/>
-    <sheet name="Calculos Nutricionales" sheetId="7" r:id="rId2"/>
-    <sheet name="Modelos" sheetId="6" r:id="rId3"/>
-    <sheet name="No significativas y desgloce" sheetId="5" r:id="rId4"/>
-    <sheet name="Valores Diarios de referencia" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId2"/>
+    <sheet name="Calculos Nutricionales" sheetId="7" r:id="rId3"/>
+    <sheet name="Modelos" sheetId="6" r:id="rId4"/>
+    <sheet name="No significativas y desgloce" sheetId="5" r:id="rId5"/>
+    <sheet name="Valores Diarios de referencia" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,12 +33,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="319">
   <si>
     <t>-</t>
   </si>
@@ -75,9 +79,6 @@
     <t>12 g</t>
   </si>
   <si>
-    <t>15g</t>
-  </si>
-  <si>
     <t>120 mg</t>
   </si>
   <si>
@@ -762,15 +763,9 @@
     <t>Porción 100 g o ml (medida casera)</t>
   </si>
   <si>
-    <t>Información Nutricional: Porción 100g (1/2 Unidad). Valor energético 263 Kcal = 1100 kJ (13 %VD*); Carbohidratos 20g (7% VD); Proteínas 12g (16% VD); Grasas totales 15g (27% VD); Grasas saturadas 5g (23% VD); Grasas trans 0g; Fibra alimentaria 3g (12% VD); Sodio 120mg (5% VD)</t>
-  </si>
-  <si>
     <t>No aporta cantidades significativas de ... (Valor energético y/o el/los nombre/s del/de los nutriente/s)</t>
   </si>
   <si>
-    <t>* % Valores Diarios con base a una dieta de 2.000 kcal u 8.400 kJ. Sus valores diarios pueden ser mayores o menores dependiendo de sus necesidades energéticas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">     No aporta cantidades significativas de …</t>
   </si>
   <si>
@@ -786,9 +781,6 @@
     <t>utilizando los siguientes factores de conversión:</t>
   </si>
   <si>
-    <t>Glúcidos (excepto polialcoholes)          4 kcal/g - 17 kJ-g</t>
-  </si>
-  <si>
     <t>Proteínas                                 4 kcal/g - 47 kJ/g</t>
   </si>
   <si>
@@ -949,13 +941,70 @@
   </si>
   <si>
     <t>Nutrientes adicionales  (campo donse se puede agregar más de uno de los siguientes)</t>
+  </si>
+  <si>
+    <t>Energy (kcal)</t>
+  </si>
+  <si>
+    <t>Energy (kJ)</t>
+  </si>
+  <si>
+    <t>Carbohydrate, by difference (g)</t>
+  </si>
+  <si>
+    <t>Protein (g)</t>
+  </si>
+  <si>
+    <t>Total lipid (fat) (g)</t>
+  </si>
+  <si>
+    <t>Fiber, total dietary (g)</t>
+  </si>
+  <si>
+    <t>Sodium, Na (mg)</t>
+  </si>
+  <si>
+    <t>Fatty acids, total saturated (g)</t>
+  </si>
+  <si>
+    <t>Fatty acids, total trans (g)</t>
+  </si>
+  <si>
+    <t>Carbohidratos (excepto polialcoholes)          4 kcal/g - 17 kJ-g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Grasas saturadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Grasas monoinsaturadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Grasas poliinsaturadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Grasas trans</t>
+  </si>
+  <si>
+    <t>15 g, de las cuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Colesterol</t>
+  </si>
+  <si>
+    <t>15 mg</t>
+  </si>
+  <si>
+    <t>Información Nutricional: Porción 100g (1/2 Unidad). Valor energético 263 Kcal = 1100 kJ (13 %VD*); Carbohidratos 20g (7% VD); Proteínas 12g (16% VD); Grasas totales 15g (27% VD), de los cuales: Grasas saturadas 5g (23% VD), Grasas monoinsaturadas 5g,  Grasas poliinsaturadas 5g,  Grasas trans 0g, Colesterol 15 mg; Fibra alimentaria 3g (12% VD); Sodio 120mg (5% VD)</t>
+  </si>
+  <si>
+    <t>(*) % Valores Diarios con base a una dieta de 2.000 kcal u 8.400 kJ. Sus valores diarios pueden ser mayores o menores dependiendo de sus necesidades energéticas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -992,13 +1041,29 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1094,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1109,24 +1174,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1138,14 +1185,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1156,6 +1203,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,684 +1534,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DF01BA-F986-4A29-8309-C3970F79890F}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="F2" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>59</v>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10">
         <f>263/2000</f>
         <v>0.13150000000000001</v>
       </c>
+      <c r="D4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>301</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <f>20/300</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="D5" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <f>12/75</f>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="10">
         <f>15/55</f>
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="D7" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10">
         <f>5/22</f>
         <v>0.22727272727272727</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
         <f>3/25</f>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="D13" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10">
         <f>120/2400</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" t="s">
         <v>213</v>
       </c>
-      <c r="F17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" t="s">
-        <v>301</v>
-      </c>
-      <c r="P17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="G20" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P22" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="L25" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="P19" s="4" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F20" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="4" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E21" s="1"/>
-      <c r="F21" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L21" t="s">
-        <v>302</v>
-      </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>303</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="L22" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="P32" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="M40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="4" t="s">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="P29" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="M37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="4" t="s">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M39" s="4" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="M40" s="4" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" s="4" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M43" s="4" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" s="4" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" s="4" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="4" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M49" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M50" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136C2744-CCC5-4014-99AE-3F6F13884AD2}">
-  <dimension ref="A1:A39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3396439-C9A7-4BE6-867E-5312FF718CF2}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>271</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2145,302 +2175,184 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F76179-2A7E-4392-A16E-AF884D1F8A87}">
-  <dimension ref="A1:A63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136C2744-CCC5-4014-99AE-3F6F13884AD2}">
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A57"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2449,649 +2361,302 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8081A31-DED3-4809-8496-A32352CD78A9}">
-  <dimension ref="A1:A140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F76179-2A7E-4392-A16E-AF884D1F8A87}">
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3100,264 +2665,915 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8081A31-DED3-4809-8496-A32352CD78A9}">
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660FDCC9-9D0F-4E6B-8C76-AA5232C29965}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Ejemplo tabla nutricional.xlsx
+++ b/Ejemplo tabla nutricional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/jose_torres_correo_ucu_edu_uy/Documents/VS CODE/Programacion II/food_formulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{ECD9DDF4-A810-436C-A4F0-009AF0C184B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4832B5-6CE1-4450-A700-A2C16514AD71}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{ECD9DDF4-A810-436C-A4F0-009AF0C184B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06387C6B-F67D-466E-A0F0-28D7B87EFEED}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplos y otros valores" sheetId="3" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -688,12 +685,6 @@
     <t>INFORMACION NUTRICIONAL</t>
   </si>
   <si>
-    <t>Desgloce Grasa</t>
-  </si>
-  <si>
-    <t>Desgloce Carbohidratos</t>
-  </si>
-  <si>
     <t>(1) FAO/OMS -Diet, Nutrition and Prevention of Chronic Diseases. WHO</t>
   </si>
   <si>
@@ -998,6 +989,12 @@
   </si>
   <si>
     <t>(*) % Valores Diarios con base a una dieta de 2.000 kcal u 8.400 kJ. Sus valores diarios pueden ser mayores o menores dependiendo de sus necesidades energéticas.</t>
+  </si>
+  <si>
+    <t>Desglose Grasa</t>
+  </si>
+  <si>
+    <t>Desglose Carbohidratos</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1185,15 +1182,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1230,7 +1225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,18 +1530,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DF01BA-F986-4A29-8309-C3970F79890F}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
@@ -1555,17 +1549,17 @@
       <c r="C1" s="22"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="F2" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
@@ -1575,7 +1569,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1586,17 +1580,17 @@
         <f>263/2000</f>
         <v>0.13150000000000001</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>301</v>
+      <c r="D4" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1607,14 +1601,14 @@
         <f>20/300</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>302</v>
+      <c r="D5" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1625,28 +1619,28 @@
         <f>12/75</f>
         <v>0.16</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C7" s="10">
         <f>15/55</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>310</v>
+      <c r="D7" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>57</v>
@@ -1656,36 +1650,36 @@
         <v>0.22727272727272727</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>313</v>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1694,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>316</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1719,11 +1713,11 @@
         <f>3/25</f>
         <v>0.12</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1735,29 +1729,29 @@
         <v>0.05</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
     </row>
-    <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -1765,323 +1759,323 @@
         <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F23" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F23" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
       <c r="F24" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H25" s="1"/>
       <c r="L25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
         <v>2</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="3"/>
       <c r="P32" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="3"/>
       <c r="M40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="M51" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M52" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M53" s="4" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M53" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2103,70 +2097,70 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2178,181 +2172,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136C2744-CCC5-4014-99AE-3F6F13884AD2}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2368,293 +2362,293 @@
       <selection activeCell="A51" sqref="A51:A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>211</v>
       </c>
@@ -2672,640 +2666,640 @@
       <selection activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>166</v>
       </c>
@@ -3323,257 +3317,257 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
